--- a/yabuki-a/PM演習矢吹a/PM演習_憲章_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_憲章_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7776"/>
   </bookViews>
   <sheets>
     <sheet name="PM憲章" sheetId="2" r:id="rId1"/>
@@ -887,6 +887,66 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -901,66 +961,6 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1273,15 +1273,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="21.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>52</v>
       </c>
@@ -1305,184 +1305,184 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28">
+    <row r="8" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="43">
         <v>41740</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="43">
         <v>41845</v>
       </c>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="37"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="30">
+    <row r="11" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36">
         <f>(15*4+15*4)*3</f>
         <v>360</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
+    <row r="14" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+    <row r="15" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="37"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="31" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="43"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="32"/>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="25"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G27" s="35"/>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -1492,165 +1492,165 @@
       <c r="G28" s="24"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="40"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="40"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="34"/>
+    </row>
+    <row r="39" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="40"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="34"/>
+    </row>
+    <row r="40" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="36"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G40" s="31"/>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="s">
         <v>50</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
         <v>49</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
         <v>51</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
         <v>48</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="14"/>
     </row>
-    <row r="48" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -1703,25 +1703,18 @@
       <c r="G48" s="16"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I51" s="7" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B19:H20"/>
@@ -1735,11 +1728,18 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B34:H34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_憲章_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_憲章_矢吹研A班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -887,6 +887,66 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -901,66 +961,6 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1269,9 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1311,15 +1309,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1327,17 +1325,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28">
+      <c r="B8" s="43">
         <v>41740</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="43">
         <v>41845</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1345,11 +1343,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="30">
+      <c r="B11" s="36">
         <f>(15*4+15*4)*3</f>
         <v>360</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,25 +1358,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1386,24 +1384,24 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1414,19 +1412,19 @@
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="33"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
@@ -1435,52 +1433,52 @@
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="43"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="40"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="33"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="40"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
@@ -1501,71 +1499,71 @@
       <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="36" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -1576,69 +1574,69 @@
       <c r="A37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="40"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="40"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="40"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="36"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
@@ -1710,18 +1708,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B19:H20"/>
@@ -1735,11 +1726,18 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B34:H34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_憲章_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_憲章_矢吹研A班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -496,35 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミュニケーション、ファイルの共有方法、バージョン管理にGitHubを用いる。</t>
-    <rPh sb="25" eb="27">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>モチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>滞在管理アプリをつかうことにより、その瞬間に誰が研究室にいるかわかる。</t>
-    <rPh sb="0" eb="2">
-      <t>タイザイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュンカン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自分の研究室や他の研究室のメンバと、交流を求めている学生をターゲットにする。</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -546,19 +517,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室のメンバがわかることで、グループワークがしやすくなり，交流が深まる。</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>コウリュウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -566,6 +524,57 @@
     <t>プロジェクト憲章</t>
     <rPh sb="6" eb="8">
       <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滞在管理アプリをつかうことにより、研究室にいる学生をリアルタイムで把握できるようになる。</t>
+    <rPh sb="0" eb="2">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その結果、顔を合わせる機会が増え、グループワークがしやすくなることが期待できる。</t>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニケーション、ファイルの共有、バージョン管理にGitHubを用いる。</t>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -837,18 +846,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -887,6 +884,66 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -903,64 +960,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1269,14 +1278,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="21.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -1295,7 +1304,7 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -1311,15 +1320,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1327,17 +1336,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28">
+      <c r="B8" s="40">
         <v>41740</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="40">
         <v>41845</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1345,11 +1354,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="30">
+      <c r="B11" s="33">
         <f>(15*4+15*4)*3</f>
         <v>360</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,25 +1369,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1386,24 +1395,24 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1414,83 +1423,83 @@
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="21" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="33"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="42" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="43"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="40"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="33"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="21" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="40"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -1501,71 +1510,71 @@
       <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
+      <c r="B30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="36" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -1576,69 +1585,69 @@
       <c r="A37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="40"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="40"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="21" t="s">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="40"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="36"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
@@ -1652,7 +1661,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1662,46 +1671,46 @@
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="14"/>
+      <c r="B45" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="14"/>
+      <c r="B47" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
     </row>
     <row r="48" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="17"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I51" s="7" t="s">
@@ -1709,19 +1718,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B34:H34"/>
+  <mergeCells count="33">
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B19:H20"/>
@@ -1735,11 +1740,18 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B34:H34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_憲章_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_憲章_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7776"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="PM憲章" sheetId="2" r:id="rId1"/>
@@ -496,35 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミュニケーション、ファイルの共有方法、バージョン管理にGitHubを用いる。</t>
-    <rPh sb="25" eb="27">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>モチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>滞在管理アプリをつかうことにより、その瞬間に誰が研究室にいるかわかる。</t>
-    <rPh sb="0" eb="2">
-      <t>タイザイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュンカン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自分の研究室や他の研究室のメンバと、交流を求めている学生をターゲットにする。</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -546,19 +517,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室のメンバがわかることで、グループワークがしやすくなり，交流が深まる。</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>コウリュウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -566,6 +524,57 @@
     <t>プロジェクト憲章</t>
     <rPh sb="6" eb="8">
       <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滞在管理アプリをつかうことにより、研究室にいる学生をリアルタイムで把握できるようになる。</t>
+    <rPh sb="0" eb="2">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その結果、顔を合わせる機会が増え、グループワークがしやすくなることが期待できる。</t>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニケーション、ファイルの共有、バージョン管理にGitHubを用いる。</t>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -837,18 +846,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -961,6 +958,18 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1269,19 +1278,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="21.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -1293,9 +1302,9 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -1305,354 +1314,354 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43">
+    <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="40">
         <v>41740</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="40">
         <v>41845</v>
       </c>
-      <c r="F8" s="37"/>
-    </row>
-    <row r="10" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36">
+    <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="33">
         <f>(15*4+15*4)*3</f>
         <v>360</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+    <row r="14" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="21" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="31" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="29"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="21" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="32"/>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-    </row>
-    <row r="36" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="34"/>
-    </row>
-    <row r="39" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="21" t="s">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="34"/>
-    </row>
-    <row r="40" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="31"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="30"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G40" s="28"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1661,55 +1670,58 @@
       <c r="G44" s="10"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="12" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="17"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
+    </row>
+    <row r="48" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I51" s="7" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_憲章_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_憲章_矢吹研A班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -496,6 +496,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>コミュニケーション、ファイルの共有方法、バージョン管理にGitHubを用いる。</t>
+    <rPh sb="25" eb="27">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滞在管理アプリをつかうことにより、その瞬間に誰が研究室にいるかわかる。</t>
+    <rPh sb="0" eb="2">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>自分の研究室や他の研究室のメンバと、交流を求めている学生をターゲットにする。</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -517,6 +546,19 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究室のメンバがわかることで、グループワークがしやすくなり，交流が深まる。</t>
+    <rPh sb="0" eb="3">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウリュウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -524,57 +566,6 @@
     <t>プロジェクト憲章</t>
     <rPh sb="6" eb="8">
       <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>滞在管理アプリをつかうことにより、研究室にいる学生をリアルタイムで把握できるようになる。</t>
-    <rPh sb="0" eb="2">
-      <t>タイザイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハアク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その結果、顔を合わせる機会が増え、グループワークがしやすくなることが期待できる。</t>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コミュニケーション、ファイルの共有、バージョン管理にGitHubを用いる。</t>
-    <rPh sb="23" eb="25">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>モチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -846,6 +837,18 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -884,6 +887,30 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -908,68 +935,32 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1278,14 +1269,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="21.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -1304,7 +1295,7 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -1320,15 +1311,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1336,17 +1327,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="40">
+      <c r="B8" s="28">
         <v>41740</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="28">
         <v>41845</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1354,11 +1345,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="33">
+      <c r="B11" s="30">
         <f>(15*4+15*4)*3</f>
         <v>360</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1369,25 +1360,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1395,24 +1386,24 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1423,83 +1414,83 @@
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="18" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="28" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="31"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="24"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="18" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="31"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="19"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -1510,71 +1501,71 @@
       <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="B30" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="36" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -1585,69 +1576,69 @@
       <c r="A37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="31"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="31"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="18" t="s">
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="31"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="27"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
@@ -1661,7 +1652,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1671,46 +1662,46 @@
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
+      <c r="B45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
+      <c r="B47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I51" s="7" t="s">
@@ -1718,15 +1709,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
+  <mergeCells count="30">
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B34:H34"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B19:H20"/>
@@ -1740,18 +1735,11 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
